--- a/Költségvetés.xlsx
+++ b/Költségvetés.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>2950T switch</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Ár össz</t>
+  </si>
+  <si>
+    <t>Szünetmentes táp</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,11 +170,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -181,7 +197,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -464,9 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -522,7 +540,7 @@
         <v>400000</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D7" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D8" si="0">B3*C3</f>
         <v>400000</v>
       </c>
     </row>
@@ -606,18 +624,31 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7">
-        <f>SUM(D2:D7)</f>
-        <v>1063575</v>
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>50000</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
       </c>
       <c r="N8">
         <v>1450</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8">
+        <f>SUM(D2:D8)</f>
+        <v>1263575</v>
+      </c>
       <c r="M9" t="s">
         <v>6</v>
       </c>

--- a/Költségvetés.xlsx
+++ b/Költségvetés.xlsx
@@ -200,8 +200,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -627,10 +627,10 @@
       <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>50000</v>
       </c>
       <c r="D8" s="3">
